--- a/Tabela de comparação.xlsx
+++ b/Tabela de comparação.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Quick Sort vs Bubble Sort</t>
   </si>
   <si>
-    <t>Quick Sort</t>
-  </si>
-  <si>
-    <t>Bubble Sort</t>
-  </si>
-  <si>
     <t>Média: 9,88</t>
   </si>
   <si>
@@ -57,17 +51,17 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>Complexidade: O(n2)</t>
-  </si>
-  <si>
-    <t>Complexidade: O (n log n)</t>
+    <t>Quick Sort - O(n log n)</t>
+  </si>
+  <si>
+    <t>Bubble Sort - O(n²)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,27 +87,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -134,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -144,21 +122,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -263,58 +226,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -330,10 +241,23 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -348,7 +272,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -363,7 +287,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -371,62 +295,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,24 +348,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Saída" xfId="2" builtinId="21"/>
     <cellStyle name="Título" xfId="1" builtinId="15"/>
@@ -756,7 +654,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,119 +664,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>62500</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>62500</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>125000</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>125000</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>250000</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>350000</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>350000</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -906,6 +799,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E7:G7"/>
@@ -916,9 +812,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
